--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Data Viz Projects\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA46870-8EE6-4E1C-A2E9-353FF4A96CE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0238ED16-D826-4B43-9A14-DF8E56CF1C32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Charts to Make" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -115,6 +116,39 @@
   </si>
   <si>
     <t>Completed?3</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Bar Chart</t>
+  </si>
+  <si>
+    <t>Scatter Plot</t>
+  </si>
+  <si>
+    <t>Name of the State</t>
+  </si>
+  <si>
+    <t>Landmass of the state, no large bodies of water</t>
+  </si>
+  <si>
+    <t>Population of the State</t>
+  </si>
+  <si>
+    <t>State Population divided by State Landmass</t>
+  </si>
+  <si>
+    <t>Total carbon offset according to Google's Project Sunroof</t>
+  </si>
+  <si>
+    <t>Total Carbon Offset adjusted for percent of sunlight by state and percent of clean energy produced by state</t>
+  </si>
+  <si>
+    <t>Not actually a heat map, but I'm not sure of the actaul name. Will be a map with colored values</t>
   </si>
 </sst>
 </file>
@@ -402,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -434,6 +468,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,33 +489,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -652,6 +676,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -659,15 +689,22 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -684,21 +721,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{901C8E68-FC53-4A98-9367-6100525EF00C}" name="Table5" displayName="Table5" ref="B4:J14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{901C8E68-FC53-4A98-9367-6100525EF00C}" name="Table5" displayName="Table5" ref="B4:J14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B4:J14" xr:uid="{C7C9638A-BB53-4224-B46B-A88831222D9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J14">
     <sortCondition ref="B4:B14"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E621C5C3-0F6B-4E04-8273-4CD5F8D471A7}" name="Number" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B364F0ED-253B-40A5-B1B6-7883E75E0691}" name="Chart Title" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F336DDEC-DB6B-43C6-A3B9-17C04E3300D1}" name="Type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0383B459-17EB-4659-8FD5-E5AEB1C659C6}" name="Completed?" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E7E5E3FD-F032-4ECC-A592-3078E862C7CF}" name="X-Axis title" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{365F08F1-80FF-479B-A296-C70415CBC490}" name="Completed?2" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{323F3600-1A85-43DB-AA62-DAC1738EBE17}" name="Y-Axis Title" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{ABD08D9C-389E-41D5-B9AF-037818EF5DF3}" name="Completed?3" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{CD3D8F98-660B-49CC-9DEC-DFB232B34E99}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E621C5C3-0F6B-4E04-8273-4CD5F8D471A7}" name="Number" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B364F0ED-253B-40A5-B1B6-7883E75E0691}" name="Chart Title" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F336DDEC-DB6B-43C6-A3B9-17C04E3300D1}" name="Type" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0383B459-17EB-4659-8FD5-E5AEB1C659C6}" name="Completed?" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E7E5E3FD-F032-4ECC-A592-3078E862C7CF}" name="X-Axis title" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{365F08F1-80FF-479B-A296-C70415CBC490}" name="Completed?2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{323F3600-1A85-43DB-AA62-DAC1738EBE17}" name="Y-Axis Title" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{ABD08D9C-389E-41D5-B9AF-037818EF5DF3}" name="Completed?3" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{CD3D8F98-660B-49CC-9DEC-DFB232B34E99}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,7 +1041,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,31 +1059,31 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1360,4 +1397,103 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0754CEB-EFE7-43D6-BC2B-AF53D77D9D66}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Data Viz Projects\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0238ED16-D826-4B43-9A14-DF8E56CF1C32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DFFDE6-840E-4371-9683-778C0175388B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts to Make" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Not actually a heat map, but I'm not sure of the actaul name. Will be a map with colored values</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -436,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -468,6 +477,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,9 +501,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,7 +1052,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,31 +1070,31 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1131,8 +1142,8 @@
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
+      <c r="G5" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>20</v>
@@ -1158,8 +1169,8 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
+      <c r="G6" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>21</v>
@@ -1185,8 +1196,8 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
+      <c r="G7" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
@@ -1441,7 +1452,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1489,7 +1500,7 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DFFDE6-840E-4371-9683-778C0175388B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C28881-79B3-44DD-8D16-FA7D6C318C73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="40">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -480,6 +480,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,8 +503,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,31 +1070,31 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1169,7 +1169,7 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1196,7 +1196,7 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1223,8 +1223,8 @@
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
+      <c r="G8" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>21</v>
@@ -1250,8 +1250,8 @@
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
+      <c r="G9" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>21</v>
@@ -1277,8 +1277,8 @@
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
+      <c r="G10" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>21</v>
@@ -1304,8 +1304,8 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
+      <c r="G11" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
@@ -1331,8 +1331,8 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
+      <c r="G12" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C28881-79B3-44DD-8D16-FA7D6C318C73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B06852C-24DB-4E77-B895-F374F89B6B39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="41">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Yed</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -503,6 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +1056,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,8 +1362,8 @@
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
+      <c r="G13" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
@@ -1385,8 +1389,8 @@
       <c r="F14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>19</v>
+      <c r="G14" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>21</v>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B06852C-24DB-4E77-B895-F374F89B6B39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650B560-4093-4B49-A0B0-D5764A275923}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Yed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -453,7 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,6 +493,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,7 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,7 +1065,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,39 +1108,39 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1140,25 +1149,25 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
+      <c r="E5" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="9"/>
+      <c r="I5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1173,7 +1182,7 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1182,10 +1191,10 @@
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1200,7 +1209,7 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1209,10 +1218,10 @@
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1227,7 +1236,7 @@
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1236,10 +1245,10 @@
       <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1254,7 +1263,7 @@
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1263,10 +1272,10 @@
       <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1281,7 +1290,7 @@
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1290,10 +1299,10 @@
       <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1308,7 +1317,7 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1317,10 +1326,10 @@
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1335,7 +1344,7 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1344,10 +1353,10 @@
       <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1362,7 +1371,7 @@
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1371,34 +1380,34 @@
       <c r="I13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="14"/>
+      <c r="I14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1419,7 +1428,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1465,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1504,7 +1513,7 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650B560-4093-4B49-A0B0-D5764A275923}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D87DEDF-7864-4E96-A4E4-82856F9C4985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="42">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -515,7 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,8 +1149,8 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>41</v>
+      <c r="E5" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1188,8 +1188,8 @@
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
+      <c r="I6" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -1215,8 +1215,8 @@
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
+      <c r="I7" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -1242,8 +1242,8 @@
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
+      <c r="I8" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J8" s="9"/>
     </row>
@@ -1269,8 +1269,8 @@
       <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
+      <c r="I9" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -1296,8 +1296,8 @@
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>19</v>
+      <c r="I10" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J10" s="9"/>
     </row>
@@ -1323,8 +1323,8 @@
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
+      <c r="I11" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J11" s="9"/>
     </row>
@@ -1350,8 +1350,8 @@
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>19</v>
+      <c r="I12" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -1377,8 +1377,8 @@
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>19</v>
+      <c r="I13" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -1404,8 +1404,8 @@
       <c r="H14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>19</v>
+      <c r="I14" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="J14" s="13"/>
     </row>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D87DEDF-7864-4E96-A4E4-82856F9C4985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEA05C-85BD-4556-B835-02BDC73F2CBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -494,6 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,7 +516,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,31 +1083,31 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1176,8 +1176,8 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
+      <c r="E6" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -1188,8 +1188,8 @@
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>41</v>
+      <c r="I6" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -1215,8 +1215,8 @@
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>41</v>
+      <c r="I7" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -1242,8 +1242,8 @@
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>41</v>
+      <c r="I8" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J8" s="9"/>
     </row>
@@ -1269,8 +1269,8 @@
       <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>41</v>
+      <c r="I9" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -1296,8 +1296,8 @@
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>41</v>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J10" s="9"/>
     </row>
@@ -1323,8 +1323,8 @@
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>41</v>
+      <c r="I11" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J11" s="9"/>
     </row>
@@ -1350,8 +1350,8 @@
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>41</v>
+      <c r="I12" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -1377,8 +1377,8 @@
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>41</v>
+      <c r="I13" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -1404,8 +1404,8 @@
       <c r="H14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>41</v>
+      <c r="I14" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="13"/>
     </row>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEA05C-85BD-4556-B835-02BDC73F2CBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAE363-44AC-4E59-91E6-E9D13D6C1743}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts to Make" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -154,7 +154,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Yed</t>
+    <t>Adjusted Carbon Offset by State</t>
+  </si>
+  <si>
+    <t>Second Y-Axis: Carbon Free Power</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -213,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -397,17 +400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -457,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -476,16 +468,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -494,11 +483,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,9 +501,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,10 +734,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{901C8E68-FC53-4A98-9367-6100525EF00C}" name="Table5" displayName="Table5" ref="B4:J14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B4:J14" xr:uid="{C7C9638A-BB53-4224-B46B-A88831222D9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J14">
-    <sortCondition ref="B4:B14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{901C8E68-FC53-4A98-9367-6100525EF00C}" name="Table5" displayName="Table5" ref="B4:J15" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="B4:J15" xr:uid="{C7C9638A-BB53-4224-B46B-A88831222D9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J15">
+    <sortCondition ref="B4:B15"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E621C5C3-0F6B-4E04-8273-4CD5F8D471A7}" name="Number" dataDxfId="8"/>
@@ -1062,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C79289-2E7B-4D49-84FA-B212AA484479}">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,36 +1068,37 @@
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -1135,7 +1125,7 @@
       <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1149,19 +1139,19 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="8"/>
@@ -1171,18 +1161,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>41</v>
+      <c r="E6" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1191,7 +1181,9 @@
       <c r="I6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
@@ -1201,21 +1193,21 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="9"/>
@@ -1225,37 +1217,37 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1263,13 +1255,13 @@
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="9"/>
@@ -1279,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -1290,13 +1282,13 @@
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="9"/>
@@ -1306,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1315,15 +1307,15 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="9"/>
@@ -1336,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -1344,70 +1336,97 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="G15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="13"/>
+      <c r="I15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1465,7 +1484,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1513,7 +1532,7 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAE363-44AC-4E59-91E6-E9D13D6C1743}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32139C3C-9065-41C9-9448-17F19ECD3B82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts to Make" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>Second Y-Axis: Carbon Free Power</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -190,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +206,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -449,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -504,7 +495,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,7 +1044,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,8 +1185,8 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>42</v>
+      <c r="E7" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32139C3C-9065-41C9-9448-17F19ECD3B82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B68BF-95ED-456C-BFE9-F4EE5FB83638}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts to Make" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Second Y-Axis: Carbon Free Power</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -440,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -495,6 +504,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,7 +1054,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,8 +1249,8 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
+      <c r="E9" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B68BF-95ED-456C-BFE9-F4EE5FB83638}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F26F4DB-EC01-4D08-B001-23FFE6265CB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
@@ -483,6 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,7 +505,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,31 +1073,31 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1303,8 +1303,8 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
+      <c r="E11" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F26F4DB-EC01-4D08-B001-23FFE6265CB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F1A331-8AAF-4DCC-9F4C-CC4183D824C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts to Make" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,8 +1330,8 @@
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
+      <c r="E12" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>

--- a/Chart To Do List.xlsx
+++ b/Chart To Do List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\The_Dirty_Hippy_Proposal_For_Clean_Solar_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F1A331-8AAF-4DCC-9F4C-CC4183D824C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281FC79D-B4BD-4A0A-AED8-E58D74494361}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06FDBFB9-0260-41AD-8906-A49EB2D83A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts to Make" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Chart To-Do List</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Adjusted Carbon Offset by Population (No Outliers?)</t>
+  </si>
+  <si>
+    <t>Power Consumption by State Population</t>
+  </si>
+  <si>
+    <t>Power Consumption</t>
+  </si>
+  <si>
+    <t>Power consumption might be done with Total Carbon offset.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -504,6 +516,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,10 +761,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{901C8E68-FC53-4A98-9367-6100525EF00C}" name="Table5" displayName="Table5" ref="B4:J15" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B4:J15" xr:uid="{C7C9638A-BB53-4224-B46B-A88831222D9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J15">
-    <sortCondition ref="B4:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{901C8E68-FC53-4A98-9367-6100525EF00C}" name="Table5" displayName="Table5" ref="B4:J17" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="B4:J17" xr:uid="{C7C9638A-BB53-4224-B46B-A88831222D9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J17">
+    <sortCondition ref="B4:B17"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E621C5C3-0F6B-4E04-8273-4CD5F8D471A7}" name="Number" dataDxfId="8"/>
@@ -1051,24 +1078,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C79289-2E7B-4D49-84FA-B212AA484479}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1156,32 +1183,32 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+    <row r="6" spans="2:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1348,14 +1375,14 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -1369,64 +1396,120 @@
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+    <row r="14" spans="2:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="I16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="12"/>
+      <c r="I17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
